--- a/_testdata/wordcontrol_import_new.xlsx
+++ b/_testdata/wordcontrol_import_new.xlsx
@@ -22,33 +22,33 @@
     <t>Расширенный комментарий</t>
   </si>
   <si>
-    <t>синтаксическая_категория [параметры_лексемы]</t>
-  </si>
-  <si>
     <t>*1 Расширенный комментарий
 *2 Расширенный комментарий</t>
   </si>
   <si>
-    <t>Переводимый язык &lt;основной диалект&gt; [основная система письма : альтернативная]</t>
-  </si>
-  <si>
-    <t>Другой язык &lt;основной диалект&gt; [система письма]</t>
-  </si>
-  <si>
-    <t>слово`формаБ1 : слово`формаБ1 *1</t>
-  </si>
-  <si>
-    <t>Параметры лексем (ИмяИст)</t>
-  </si>
-  <si>
-    <t>&lt;диалект+информант&gt; слово`формаА1 : слово`формаА1 """комментарий"""  ; &lt;диалект+информант&gt; слово`формаА2 : слово`формаА2 """комментарий"""</t>
-  </si>
-  <si>
-    <t>[тема] &lt;диалект&gt; """комментарий_группы""" @  [параметры_лексемы] &lt;диалект_перевода&gt; переводА1 """комментарий_перевода""" ; [параметры_лексемы] &lt;диалект_перевода&gt; переводА2 """комментарий_перевода""" 
+    <t>переводБ1 ; переводБ2 *2</t>
+  </si>
+  <si>
+    <t>Имя_Источника</t>
+  </si>
+  <si>
+    <t>&lt;диалект+информант&gt; слово`формаА1 = слово`формаА1 """комментарий"""  ; &lt;диалект+информант&gt; слово`формаА2 = слово`формаА2 """комментарий"""</t>
+  </si>
+  <si>
+    <t>слово`формаБ1 = слово`формаБ1 *1</t>
+  </si>
+  <si>
+    <t>{тема} &lt;диалект&gt; """комментарий_группы""" @  {параметры_лексемы} &lt;диалект_перевода&gt; переводА1 """комментарий_перевода""" ; {параметры_лексемы} &lt;диалект_перевода&gt; переводА2 """комментарий_перевода""" 
 &gt;&gt; Пример</t>
   </si>
   <si>
-    <t>переводБ1 ; переводБ2 *2</t>
+    <t>синтаксическая_категория {параметры_лексемы}</t>
+  </si>
+  <si>
+    <t>Переводимый язык &lt;основной диалект&gt; {основная система письма : альтернативная}</t>
+  </si>
+  <si>
+    <t>Другой язык &lt;основной диалект&gt; {система письма}</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,13 +431,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -445,13 +445,13 @@
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
